--- a/.test/_res/source/myExcel.xlsx
+++ b/.test/_res/source/myExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1742F8-5C6E-4096-9BF7-9C330F9EB1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE750C8F-925A-444F-B795-214085E5DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表A" sheetId="1" r:id="rId1"/>

--- a/.test/_res/source/myExcel.xlsx
+++ b/.test/_res/source/myExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE750C8F-925A-444F-B795-214085E5DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F07D1-4F26-4F7D-936B-5B992B3D231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="15375" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表A" sheetId="1" r:id="rId1"/>

--- a/.test/_res/source/myExcel.xlsx
+++ b/.test/_res/source/myExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F07D1-4F26-4F7D-936B-5B992B3D231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A227D2-1AF5-45AC-B56A-87280D4F3068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="15375" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3015" windowWidth="19845" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表A" sheetId="1" r:id="rId1"/>

--- a/.test/_res/source/myExcel.xlsx
+++ b/.test/_res/source/myExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A227D2-1AF5-45AC-B56A-87280D4F3068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B4DB6-08CF-41CD-905B-7F46E38C101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3015" windowWidth="19845" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/.test/_res/source/myExcel.xlsx
+++ b/.test/_res/source/myExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B4DB6-08CF-41CD-905B-7F46E38C101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2429CD-CA63-4473-9E95-E5FE6893D065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3015" windowWidth="19845" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表A" sheetId="1" r:id="rId1"/>
@@ -463,9 +463,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -493,7 +493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -507,7 +507,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -521,7 +521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -548,7 +548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,7 +562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.test/_res/source/myExcel.xlsx
+++ b/.test/_res/source/myExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2429CD-CA63-4473-9E95-E5FE6893D065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5580384D-B2C9-41AB-ADBC-87BDEB491C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表A" sheetId="1" r:id="rId1"/>

--- a/.test/_res/source/myExcel.xlsx
+++ b/.test/_res/source/myExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5580384D-B2C9-41AB-ADBC-87BDEB491C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD507B30-5100-4A61-8573-0B7D3F5AB940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
